--- a/Excel/TI/Mon_TI_2024_04_11.xlsx
+++ b/Excel/TI/Mon_TI_2024_04_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,6 +594,16 @@
           <t>M+2_team</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>M+3_H_A</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>M+3_team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,11 +616,7 @@
           <t>Zion Williamson</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Questionable</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>F</t>
@@ -618,13 +624,13 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>37.4</v>
       </c>
       <c r="G2" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="H2" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="I2" t="n">
         <v>14</v>
@@ -636,33 +642,35 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
+        <v>35</v>
+      </c>
+      <c r="O2" t="n">
+        <v>55</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>19</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>42</v>
       </c>
-      <c r="P2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>40</v>
-      </c>
-      <c r="R2" t="n">
-        <v>53</v>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
@@ -710,6 +718,16 @@
           <t>GSW</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -722,7 +740,11 @@
           <t>Jayson Tatum</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Questionable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>F</t>
@@ -730,16 +752,16 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>43.8</v>
+        <v>32.8</v>
       </c>
       <c r="G3" t="n">
-        <v>41.6</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>40.9</v>
+        <v>40.5</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -751,30 +773,32 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
+        <v>30</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>38</v>
       </c>
-      <c r="P3" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>50</v>
-      </c>
-      <c r="R3" t="n">
-        <v>55</v>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>vs</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>-0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -822,6 +846,16 @@
           <t>CHA</t>
         </is>
       </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -842,51 +876,51 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>40.2</v>
+        <v>38.6</v>
       </c>
       <c r="G4" t="n">
-        <v>40.6</v>
+        <v>38.8</v>
       </c>
       <c r="H4" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="I4" t="n">
         <v>14</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
+        <v>49</v>
+      </c>
+      <c r="O4" t="n">
+        <v>36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q4" t="n">
         <v>41</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R4" t="n">
         <v>35</v>
       </c>
-      <c r="P4" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>40</v>
-      </c>
-      <c r="R4" t="n">
-        <v>37</v>
-      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -934,99 +968,111 @@
           <t>WAS</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kristaps Porzingis</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>38.8</v>
       </c>
       <c r="G5" t="n">
-        <v>33.3</v>
+        <v>31.9</v>
       </c>
       <c r="H5" t="n">
-        <v>33.4</v>
+        <v>33.8</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>62</v>
-      </c>
-      <c r="O5" t="n">
-        <v>39</v>
+        <v>53</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q5" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="R5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1043,19 +1089,29 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>UTA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nikola Vucevic</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1066,71 +1122,73 @@
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>28.4</v>
+        <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="H6" t="n">
-        <v>30.3</v>
+        <v>30.7</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="R6" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>-0.1</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1138,15 +1196,17 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AD6" t="n">
-        <v>16</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1155,19 +1215,29 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Nikola Vucevic</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1178,73 +1248,71 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>23.6</v>
+        <v>26.2</v>
       </c>
       <c r="G7" t="n">
-        <v>28.2</v>
+        <v>28.6</v>
       </c>
       <c r="H7" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Q7" t="n">
-        <v>27</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="R7" t="n">
+        <v>31</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>-0.1</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="Z7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -1252,17 +1320,15 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>16</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1271,70 +1337,82 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>NYK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Amen Thompson</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+          <t>Jonathan Kuminga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>28.2</v>
+        <v>23.8</v>
       </c>
       <c r="G8" t="n">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="H8" t="n">
-        <v>18.8</v>
+        <v>24.7</v>
       </c>
       <c r="I8" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>41</v>
-      </c>
-      <c r="R8" t="n">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1342,7 +1420,7 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1353,53 +1431,63 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AB8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
           <t>UTA</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>POR</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Amen Thompson</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1410,40 +1498,42 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>31.6</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="H9" t="n">
-        <v>33.6</v>
+        <v>18.9</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>4</v>
-      </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
-      </c>
-      <c r="P9" t="n">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="R9" t="n">
         <v>23</v>
@@ -1454,7 +1544,7 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>-0.7</v>
+        <v>1.6</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1465,41 +1555,51 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AD9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="Z9" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>NOP</t>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>LAC</t>
         </is>
       </c>
     </row>
@@ -1514,11 +1614,7 @@
           <t>Andrew Wiggins</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Day-To-Day</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>F</t>
@@ -1526,19 +1622,19 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="G10" t="n">
-        <v>21.1</v>
+        <v>22.1</v>
       </c>
       <c r="H10" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="I10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1550,27 +1646,31 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
+        <v>27</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>13</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>33</v>
       </c>
-      <c r="P10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>35</v>
-      </c>
-      <c r="R10" t="n">
-        <v>31</v>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>@</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
@@ -1620,6 +1720,16 @@
           <t>NOP</t>
         </is>
       </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1653,16 +1763,16 @@
         <v>37.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1750,6 +1860,16 @@
           <t>POR</t>
         </is>
       </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1783,38 +1903,42 @@
         <v>32.1</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
         <v>59</v>
-      </c>
-      <c r="P12" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>38</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1870,6 +1994,16 @@
           <t>DAL</t>
         </is>
       </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1932,11 +2066,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>56</v>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1996,16 +2134,26 @@
           <t>LAC</t>
         </is>
       </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Brandon Ingram</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2020,28 +2168,28 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="G14" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="H14" t="n">
-        <v>24.6</v>
+        <v>32.2</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
         <v>2</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -2074,7 +2222,7 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>-0.4</v>
+        <v>-3.1</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -2085,16 +2233,16 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -2102,7 +2250,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -2110,28 +2258,38 @@
         </is>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>vs</t>
+          <t>@</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>LAL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Brandon Ingram</t>
+          <t>Jerami Grant</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2146,25 +2304,25 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>24.6</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>28.5</v>
+        <v>26.3</v>
       </c>
       <c r="H15" t="n">
-        <v>32.2</v>
+        <v>27.7</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2196,184 +2354,68 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>-3.1</v>
+        <v>3.9</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>@</t>
+          <t>vs</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>vs</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
           <t>SAC</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AD15" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Jerami Grant</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Out</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>21</v>
-      </c>
-      <c r="G16" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>@</t>
-        </is>
-      </c>
-      <c r="Z16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>HOU</t>
         </is>
       </c>
     </row>
